--- a/biology/Zoologie/Dolomedes_yawatai/Dolomedes_yawatai.xlsx
+++ b/biology/Zoologie/Dolomedes_yawatai/Dolomedes_yawatai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes yawatai est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes yawatai est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'archipel Nansei au Japon[1]. Elle se rencontre sur Ishigaki-jima et Iriomote-jima.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'archipel Nansei au Japon. Elle se rencontre sur Ishigaki-jima et Iriomote-jima.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 28,3 mm et le mâle paratype 11,1 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 28,3 mm et le mâle paratype 11,1 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Akihiko Yawata[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Akihiko Yawata.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ono, 2002 : New and remarkable spiders of the families Liphistiidae, Argyronetidae, Pisauridae, Theridiidae and Araneidae (Arachnida) from Japan. Bulletin of the National Museum of Nature and Science Tokyo, sér. A, vol. 28, p. 51-60.</t>
         </is>
